--- a/국세청신고.xlsx
+++ b/국세청신고.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBKIM\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temporary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="10530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="10536"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,70 @@
   </si>
   <si>
     <t>금액2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>229-83-00021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언남고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107-82-12593</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105-86-48583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>468-87-01486</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113-86-10389</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214-88-68330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨마스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식 (씨마스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소득금액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -141,6 +205,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,24 +509,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="4" max="5" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.796875" customWidth="1"/>
+    <col min="4" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" customWidth="1"/>
+    <col min="9" max="10" width="10.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -457,130 +545,272 @@
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="3">
-        <v>800000</v>
+        <v>80000</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>32000</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="3">
         <v>376000</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>376000</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="6">
+        <f>H3+H4</f>
+        <v>408000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
         <v>150000</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5" s="3">
+        <v>13200</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="8">
+        <v>60000</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
         <v>1900000</v>
       </c>
-      <c r="G6" s="1">
-        <v>841290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="3">
+        <v>167200</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>760000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>432000</v>
       </c>
-      <c r="G7" s="1">
-        <v>2189240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="3">
+        <v>27280</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="8">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>186130</v>
       </c>
-      <c r="G8" s="1">
-        <v>1512470</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="3">
+        <v>6130</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H8" s="8">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>4698030</v>
       </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="3">
+        <v>155020</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H9" s="9">
+        <f>E9-F9</f>
+        <v>4543010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>80000</v>
       </c>
-      <c r="G10" s="1">
-        <f>SUM(G6:G9)</f>
-        <v>4543000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" s="3">
+        <v>2640</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H10" s="10">
+        <v>77360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
         <v>100000</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H11" s="10">
+        <v>96700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D13" s="1">
         <f>SUM(D3:D12)</f>
-        <v>1176000</v>
+        <v>456000</v>
       </c>
       <c r="E13" s="1">
         <f>SUM(E3:E12)</f>
         <v>7546160</v>
       </c>
+      <c r="F13" s="6">
+        <f>SUM(F3:F12)</f>
+        <v>374770</v>
+      </c>
+      <c r="H13" s="6">
+        <f>SUM(H2:H12)</f>
+        <v>6297870</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1">
+        <v>841290</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F19" s="1">
+        <v>2189240</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F20" s="1">
+        <v>1512470</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F22" s="1">
+        <f>SUM(F18:F21)</f>
+        <v>4543000</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F23" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
